--- a/biology/Botanique/Berle_à_larges_feuilles/Berle_à_larges_feuilles.xlsx
+++ b/biology/Botanique/Berle_à_larges_feuilles/Berle_à_larges_feuilles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Berle_%C3%A0_larges_feuilles</t>
+          <t>Berle_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La Grande Berle ou Berle à larges feuilles (Sium latifolium) est une plante herbacée vivace de la famille des Apiacées.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Berle_%C3%A0_larges_feuilles</t>
+          <t>Berle_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,12 +523,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Feuilles grandes, unipennées, à 5 paires de folioles
 Feuilles submergées bi- ou tri-pennées.
 Fleurs blanches en ombelles
-Floraison juin, septembre[1].</t>
+Floraison juin, septembre.</t>
         </is>
       </c>
     </row>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Berle_%C3%A0_larges_feuilles</t>
+          <t>Berle_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Marais et cours d'eau.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Berle_%C3%A0_larges_feuilles</t>
+          <t>Berle_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce se rencontre dans toute la France sauf le Midi ; en  Europe elle est répandue jusqu'aux frontières de l'Asie mineure et à l'est, on la trouve en Russie et en Sibérie.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Berle_%C3%A0_larges_feuilles</t>
+          <t>Berle_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La grande berle est suspectée d'être toxique[2]. Elle abrite souvent une espèce d'insectes coléoptères Lixus paraplecticus.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La grande berle est suspectée d'être toxique. Elle abrite souvent une espèce d'insectes coléoptères Lixus paraplecticus.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Berle_%C3%A0_larges_feuilles</t>
+          <t>Berle_à_larges_feuilles</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,7 +657,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Menacée par l'artificialisation des cours d'eau et la concurrence d'espèces invasives la grande berle est une espèce protégée dans la plupart des régions de France et en Suisse.
 </t>
